--- a/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,6 +984,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1024,6 +1025,9 @@
       <c r="N3" s="12">
         <v>0</v>
       </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
       <c r="P3" s="12">
         <v>887.72</v>
       </c>
@@ -1067,6 +1071,9 @@
       <c r="N4" s="12">
         <v>0</v>
       </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
       <c r="P4" s="12">
         <v>887.72</v>
       </c>
@@ -1110,6 +1117,9 @@
       <c r="N5" s="12">
         <v>0</v>
       </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
       <c r="P5" s="12">
         <v>887.72</v>
       </c>
@@ -1153,6 +1163,9 @@
       <c r="N6" s="12">
         <v>0</v>
       </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
       <c r="P6" s="12">
         <v>887.72</v>
       </c>
@@ -1196,6 +1209,9 @@
       <c r="N7" s="12">
         <v>0</v>
       </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
       <c r="P7" s="12">
         <v>887.72</v>
       </c>
@@ -1239,6 +1255,9 @@
       <c r="N8" s="12">
         <v>0</v>
       </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
       <c r="P8" s="12">
         <v>887.72</v>
       </c>
@@ -1282,6 +1301,9 @@
       <c r="N9" s="12">
         <v>0</v>
       </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
       <c r="P9" s="12">
         <v>887.72</v>
       </c>
@@ -1325,6 +1347,9 @@
       <c r="N10" s="12">
         <v>0</v>
       </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
       <c r="P10" s="12">
         <v>887.72</v>
       </c>
@@ -1368,6 +1393,9 @@
       <c r="N11" s="12">
         <v>0</v>
       </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
       <c r="P11" s="12">
         <v>887.72</v>
       </c>
@@ -1411,6 +1439,9 @@
       <c r="N12" s="12">
         <v>0</v>
       </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
       <c r="P12" s="12">
         <v>887.72</v>
       </c>
@@ -1454,6 +1485,9 @@
       <c r="N13" s="12">
         <v>0</v>
       </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
       <c r="P13" s="12">
         <v>887.72</v>
       </c>
@@ -1495,6 +1529,9 @@
         <v>0</v>
       </c>
       <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="12">
@@ -1511,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1601,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>27</v>
@@ -1598,7 +1635,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>27</v>
@@ -1632,7 +1669,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
@@ -1666,7 +1703,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>27</v>
@@ -1695,12 +1732,12 @@
       <c r="J5" s="14">
         <v>10000</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>27</v>
@@ -1729,6 +1766,8 @@
       <c r="J6" s="14">
         <v>10000</v>
       </c>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
+    <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
+    <sheet name="Acc_Repaymentdisbursement" sheetId="7" r:id="rId6"/>
+    <sheet name="Acc_Periodic" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -176,6 +179,69 @@
   </si>
   <si>
     <t>3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>mifos</t>
+  </si>
+  <si>
+    <t>Loan portfolio(2)</t>
+  </si>
+  <si>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>Cash(1)</t>
+  </si>
+  <si>
+    <t>L448</t>
+  </si>
+  <si>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>Income from fees(8)</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>Interest Receivable(3)</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
+    <t>Income from interest(7)</t>
+  </si>
+  <si>
+    <t>$ 92.05</t>
   </si>
 </sst>
 </file>
@@ -286,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -319,6 +385,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -882,10 +960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +986,7 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,7 +1036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13">
@@ -986,7 +1064,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1031,8 +1109,12 @@
       <c r="P3" s="12">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>G2*(12%/365)*B3</f>
+        <v>101.91780821917808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1077,8 +1159,12 @@
       <c r="P4" s="12">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>G2*(12%/365)*B4</f>
+        <v>92.054794520547958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1123,8 +1209,12 @@
       <c r="P5" s="12">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>G2*(12%/365)*B5</f>
+        <v>101.91780821917808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1169,8 +1259,12 @@
       <c r="P6" s="12">
         <v>887.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" ref="Q4:Q6" si="0">G5*(12%/365)*B6</f>
+        <v>75.281720547945213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1216,7 +1310,7 @@
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1262,7 +1356,7 @@
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1308,7 +1402,7 @@
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1354,7 +1448,7 @@
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1400,7 +1494,7 @@
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1446,7 +1540,7 @@
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1492,7 +1586,7 @@
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1772,4 +1866,425 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1349</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="18">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1350</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1351</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="20">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>1352</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="20">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>1364</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>1365</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20">
+        <v>42064</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1366</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20">
+        <v>42095</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>1367</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20">
+        <v>42095</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,9 +981,10 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,13 +1027,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1063,6 +1065,7 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1100,18 +1103,15 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="12">
         <v>0</v>
       </c>
       <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
         <v>887.72</v>
-      </c>
-      <c r="Q3">
-        <f>G2*(12%/365)*B3</f>
-        <v>101.91780821917808</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1150,18 +1150,15 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="12">
         <v>0</v>
       </c>
       <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
         <v>887.72</v>
-      </c>
-      <c r="Q4">
-        <f>G2*(12%/365)*B4</f>
-        <v>92.054794520547958</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1200,18 +1197,15 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="12">
         <v>0</v>
       </c>
       <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
         <v>887.72</v>
-      </c>
-      <c r="Q5">
-        <f>G2*(12%/365)*B5</f>
-        <v>101.91780821917808</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1250,18 +1244,15 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="12">
         <v>0</v>
       </c>
       <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
         <v>887.72</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q4:Q6" si="0">G5*(12%/365)*B6</f>
-        <v>75.281720547945213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1300,13 +1291,14 @@
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="12">
         <v>0</v>
       </c>
       <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
         <v>887.72</v>
       </c>
     </row>
@@ -1346,13 +1338,14 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
+      <c r="N8" s="12"/>
       <c r="O8" s="12">
         <v>0</v>
       </c>
       <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
         <v>887.72</v>
       </c>
     </row>
@@ -1392,13 +1385,14 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="12">
         <v>0</v>
       </c>
       <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
         <v>887.72</v>
       </c>
     </row>
@@ -1438,13 +1432,14 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
+      <c r="N10" s="12"/>
       <c r="O10" s="12">
         <v>0</v>
       </c>
       <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
         <v>887.72</v>
       </c>
     </row>
@@ -1484,13 +1479,14 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
+      <c r="N11" s="12"/>
       <c r="O11" s="12">
         <v>0</v>
       </c>
       <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
         <v>887.72</v>
       </c>
     </row>
@@ -1530,13 +1526,14 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
+      <c r="N12" s="12"/>
       <c r="O12" s="12">
         <v>0</v>
       </c>
       <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
         <v>887.72</v>
       </c>
     </row>
@@ -1576,13 +1573,14 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="12">
         <v>0</v>
       </c>
       <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
         <v>887.72</v>
       </c>
     </row>
@@ -1622,13 +1620,14 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
+      <c r="N14" s="12"/>
       <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
         <v>920.15</v>
       </c>
     </row>
@@ -2068,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
